--- a/medicine/Sexualité et sexologie/Sex_and_Zen__Extreme_Ecstasy/Sex_and_Zen__Extreme_Ecstasy.xlsx
+++ b/medicine/Sexualité et sexologie/Sex_and_Zen__Extreme_Ecstasy/Sex_and_Zen__Extreme_Ecstasy.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sex and Zen: Extreme Ecstasy (3D肉蒲團之極樂寶鑑, 3D rou pu tuan zhi ji le bao jian) est un film hongkongais, sorti en 2011.
 </t>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Au temps de la dynastie Ming, Wei Yangsheng est un jeune érudit voulant profiter de sa jeunesse pour rechercher le plaisir sexuel ultime. En accompagnant un ami voir une jeune fille dont le père a engagé leur mariage, il fait la connaissance de Tie Yuxiang dont il tombe, tout comme elle, immédiatement amoureux. Au grand dam de l'ami précédemment engagé avec elle, les noces sont prononcées. Toutefois, leur épanouissement sexuel n'est pas gagné !
 Wei Yangsheng entame alors une quête de tous les plaisirs qui l'amène à rencontrer le Prince de Ning, un despote à la vie dissolue grâce auquel il ira jusqu'aux extrêmes limites de l’amour physique. Malgré cette course effrénée, son amour pour Tie Yuxiang jamais ne l'abandonne. Tout ceci semble trop beau… mais c'est trop tard que Wei Yangsheng découvrira qu'il s'est lui-même jeté dans un piège machiavélique…
@@ -543,7 +557,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : Sex and Zen: Extreme Ecstasy
 Titre original : 3D肉蒲團之極樂寶鑑 (3D rou pu tuan zhi ji le bao jian)
@@ -585,7 +601,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Hayama Go : Wei Yangsheng
 Saori Hara : Ruizhu
@@ -637,6 +655,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
